--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="963">
   <si>
     <t>anchor score</t>
   </si>
@@ -319,583 +319,583 @@
     <t>hand</t>
   </si>
   <si>
+    <t>sudden</t>
+  </si>
+  <si>
+    <t>sharp</t>
+  </si>
+  <si>
+    <t>loss</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>allegedly</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>upset</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>infection</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>canadians</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>doubled</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>feels</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>damage</t>
+  </si>
+  <si>
+    <t>hay</t>
+  </si>
+  <si>
+    <t>inc</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>looking</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>fox</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>mask</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>sudden</t>
-  </si>
-  <si>
-    <t>sharp</t>
-  </si>
-  <si>
-    <t>loss</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>depression</t>
-  </si>
-  <si>
-    <t>allegedly</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>upset</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>infection</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>canadians</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>suffer</t>
-  </si>
-  <si>
-    <t>rather</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>doubled</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>feels</t>
-  </si>
-  <si>
-    <t>wind</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>damage</t>
-  </si>
-  <si>
-    <t>hay</t>
-  </si>
-  <si>
-    <t>inc</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>looking</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>ni</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>show</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>foods</t>
   </si>
   <si>
     <t>3</t>
@@ -3268,10 +3268,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3329,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02890583966020255</v>
+        <v>0.02930242103891376</v>
       </c>
       <c r="C3">
         <v>234</v>
@@ -3350,28 +3350,28 @@
         <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>67</v>
+        <v>292</v>
       </c>
       <c r="K3">
-        <v>0.004918567703915349</v>
+        <v>0.007981001879212728</v>
       </c>
       <c r="L3">
-        <v>840</v>
+        <v>218</v>
       </c>
       <c r="M3">
-        <v>882</v>
+        <v>218</v>
       </c>
       <c r="N3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2225</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01784498749189937</v>
+        <v>0.01808981655847602</v>
       </c>
       <c r="C4">
         <v>254</v>
@@ -3400,28 +3400,28 @@
         <v>260</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>160</v>
+        <v>293</v>
       </c>
       <c r="K4">
-        <v>0.004252735786194306</v>
+        <v>0.007109715423635482</v>
       </c>
       <c r="L4">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M4">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>286</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3429,7 +3429,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01164848537997828</v>
+        <v>0.01180829988272907</v>
       </c>
       <c r="C5">
         <v>38</v>
@@ -3450,28 +3450,28 @@
         <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="K5">
-        <v>0.004218366825187983</v>
+        <v>0.004918567703915349</v>
       </c>
       <c r="L5">
-        <v>293</v>
+        <v>840</v>
       </c>
       <c r="M5">
-        <v>299</v>
+        <v>882</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>84</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3479,7 +3479,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.010349950863635</v>
+        <v>0.01049194977566608</v>
       </c>
       <c r="C6">
         <v>30</v>
@@ -3500,28 +3500,28 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c r="K6">
-        <v>0.003544568666469945</v>
+        <v>0.004252735786194306</v>
       </c>
       <c r="L6">
-        <v>43</v>
+        <v>198</v>
       </c>
       <c r="M6">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>72</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3529,7 +3529,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.009257277477948203</v>
+        <v>0.009384285165961206</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -3550,28 +3550,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>0.003488542602425176</v>
+        <v>0.004218366825187983</v>
       </c>
       <c r="L7">
-        <v>550</v>
+        <v>293</v>
       </c>
       <c r="M7">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="N7">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1558</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3579,7 +3579,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008659390164195235</v>
+        <v>0.008778194977702967</v>
       </c>
       <c r="C8">
         <v>21</v>
@@ -3600,16 +3600,16 @@
         <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K8">
-        <v>0.003461155366597146</v>
+        <v>0.003544568666469945</v>
       </c>
       <c r="L8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3629,7 +3629,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.008659390164195235</v>
+        <v>0.008778194977702967</v>
       </c>
       <c r="C9">
         <v>21</v>
@@ -3650,28 +3650,28 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="K9">
-        <v>0.003426226087016796</v>
+        <v>0.003488542602425176</v>
       </c>
       <c r="L9">
-        <v>275</v>
+        <v>550</v>
       </c>
       <c r="M9">
-        <v>284</v>
+        <v>585</v>
       </c>
       <c r="N9">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O9">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P9" t="b">
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2917</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3679,7 +3679,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.008450699492927941</v>
+        <v>0.008566641119096774</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -3700,16 +3700,16 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K10">
-        <v>0.003418685594190562</v>
+        <v>0.003461155366597146</v>
       </c>
       <c r="L10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M10">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>125</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3729,7 +3729,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.008450699492927941</v>
+        <v>0.008566641119096774</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3750,28 +3750,28 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>173</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.003401264881654661</v>
+        <v>0.003426226087016796</v>
       </c>
       <c r="L11">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="M11">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3779,7 +3779,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C12">
         <v>18</v>
@@ -3800,16 +3800,16 @@
         <v>33</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K12">
-        <v>0.003332122541613644</v>
+        <v>0.003418685594190562</v>
       </c>
       <c r="L12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3829,7 +3829,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3850,28 +3850,28 @@
         <v>13</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="K13">
-        <v>0.003319416704145183</v>
+        <v>0.003401264881654661</v>
       </c>
       <c r="L13">
-        <v>279</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>605</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3879,7 +3879,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C14">
         <v>18</v>
@@ -3900,28 +3900,28 @@
         <v>13</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>174</v>
+        <v>297</v>
       </c>
       <c r="K14">
-        <v>0.003315928324143731</v>
+        <v>0.003332122541613644</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="N14">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3929,7 +3929,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.008017037465784683</v>
+        <v>0.00812702935007987</v>
       </c>
       <c r="C15">
         <v>18</v>
@@ -3950,28 +3950,28 @@
         <v>59</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="K15">
-        <v>0.003105175394939714</v>
+        <v>0.003319416704145183</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3979,7 +3979,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00779115996702716</v>
+        <v>0.0078980528647186</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -4000,28 +4000,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="K16">
-        <v>0.003094429733663747</v>
+        <v>0.003315928324143731</v>
       </c>
       <c r="L16">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M16">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="N16">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>434</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4029,7 +4029,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.007558535409443951</v>
+        <v>0.007662236752458103</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -4050,16 +4050,16 @@
         <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K17">
-        <v>0.003057765352923742</v>
+        <v>0.003105175394939714</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4079,7 +4079,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.007558535409443951</v>
+        <v>0.007662236752458103</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -4100,28 +4100,28 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="K18">
-        <v>0.002960668572120924</v>
+        <v>0.003094429733663747</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4129,7 +4129,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007318520440623871</v>
+        <v>0.00741892883424216</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -4150,16 +4150,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K19">
-        <v>0.002860277579947137</v>
+        <v>0.003057765352923742</v>
       </c>
       <c r="L19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4179,7 +4179,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4200,28 +4200,28 @@
         <v>67</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>99</v>
+        <v>300</v>
       </c>
       <c r="K20">
-        <v>0.002816344742304095</v>
+        <v>0.002960668572120924</v>
       </c>
       <c r="L20">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>632</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4229,7 +4229,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4250,16 +4250,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K21">
-        <v>0.002808736825434184</v>
+        <v>0.002860277579947137</v>
       </c>
       <c r="L21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M21">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4271,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4279,7 +4279,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4300,28 +4300,28 @@
         <v>11</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>303</v>
+        <v>99</v>
       </c>
       <c r="K22">
-        <v>0.002756232442075948</v>
+        <v>0.002816344742304095</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="N22">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>75</v>
+        <v>632</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4329,7 +4329,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006813171746540091</v>
+        <v>0.006906646873933092</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -4350,16 +4350,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K23">
-        <v>0.002702708270412068</v>
+        <v>0.002808736825434184</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4371,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4379,7 +4379,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006545883679982675</v>
+        <v>0.006635691677439494</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4400,16 +4400,16 @@
         <v>3</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K24">
-        <v>0.00264810247444385</v>
+        <v>0.002756232442075948</v>
       </c>
       <c r="L24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4429,7 +4429,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4450,16 +4450,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K25">
-        <v>0.002535365093149178</v>
+        <v>0.002702708270412068</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4479,7 +4479,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4500,16 +4500,16 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K26">
-        <v>0.002535365093149178</v>
+        <v>0.00264810247444385</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4521,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>150</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4529,7 +4529,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4550,16 +4550,16 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K27">
-        <v>0.002477073046109296</v>
+        <v>0.002535365093149178</v>
       </c>
       <c r="L27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4579,7 +4579,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006267206479435228</v>
+        <v>0.006353191090693699</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4600,16 +4600,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K28">
-        <v>0.002356166444919562</v>
+        <v>0.002535365093149178</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4629,7 +4629,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005975546917219065</v>
+        <v>0.006057530027304843</v>
       </c>
       <c r="C29">
         <v>10</v>
@@ -4650,28 +4650,28 @@
         <v>2</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="K29">
-        <v>0.002348709032125487</v>
+        <v>0.002477073046109296</v>
       </c>
       <c r="L29">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4679,7 +4679,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4700,28 +4700,28 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>180</v>
+        <v>309</v>
       </c>
       <c r="K30">
-        <v>0.00233199057118045</v>
+        <v>0.002356166444919562</v>
       </c>
       <c r="L30">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4729,7 +4729,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4750,16 +4750,16 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K31">
-        <v>0.002331360091472682</v>
+        <v>0.002348709032125487</v>
       </c>
       <c r="L31">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="M31">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="N31">
         <v>0.97</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>195</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4779,7 +4779,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4800,28 +4800,28 @@
         <v>2</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K32">
-        <v>0.002312591061417833</v>
+        <v>0.00233199057118045</v>
       </c>
       <c r="L32">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="M32">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4829,7 +4829,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005668901557082964</v>
+        <v>0.005746677564343577</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4850,28 +4850,28 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="K33">
-        <v>0.002228710334827876</v>
+        <v>0.002331360091472682</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>92</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4879,7 +4879,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4900,28 +4900,28 @@
         <v>5</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>311</v>
+        <v>161</v>
       </c>
       <c r="K34">
-        <v>0.002228710334827876</v>
+        <v>0.002312591061417833</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4929,7 +4929,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4950,16 +4950,16 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K35">
-        <v>0.002162166616329655</v>
+        <v>0.002228710334827876</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4979,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C36">
         <v>8</v>
@@ -5000,16 +5000,16 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K36">
-        <v>0.002162166616329655</v>
+        <v>0.002228710334827876</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -5021,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5029,7 +5029,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -5050,28 +5050,28 @@
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>181</v>
+        <v>312</v>
       </c>
       <c r="K37">
-        <v>0.002121206980285206</v>
+        <v>0.002162166616329655</v>
       </c>
       <c r="L37">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>166</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5079,7 +5079,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C38">
         <v>8</v>
@@ -5100,16 +5100,16 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K38">
-        <v>0.002093508824192599</v>
+        <v>0.002162166616329655</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5121,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>98</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5129,7 +5129,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005344691643856456</v>
+        <v>0.005418019566719915</v>
       </c>
       <c r="C39">
         <v>8</v>
@@ -5150,28 +5150,28 @@
         <v>141</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>315</v>
+        <v>179</v>
       </c>
       <c r="K39">
-        <v>0.002093508824192599</v>
+        <v>0.002121206980285206</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>44</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5179,7 +5179,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5200,28 +5200,28 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="K40">
-        <v>0.002082956270506158</v>
+        <v>0.002093508824192599</v>
       </c>
       <c r="L40">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5229,7 +5229,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5250,28 +5250,28 @@
         <v>19</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>154</v>
+        <v>315</v>
       </c>
       <c r="K41">
-        <v>0.002082748800022681</v>
+        <v>0.002093508824192599</v>
       </c>
       <c r="L41">
-        <v>192</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>204</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5279,7 +5279,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5300,28 +5300,28 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K42">
-        <v>0.002066067421572378</v>
+        <v>0.002082956270506158</v>
       </c>
       <c r="L42">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c r="M42">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5329,7 +5329,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -5350,28 +5350,28 @@
         <v>5</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K43">
-        <v>0.002050909991614052</v>
+        <v>0.002082748800022681</v>
       </c>
       <c r="L43">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="M43">
-        <v>161</v>
+        <v>204</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>255</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5379,7 +5379,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -5400,28 +5400,28 @@
         <v>33</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="K44">
-        <v>0.002022521672856468</v>
+        <v>0.002050909991614052</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>55</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5429,7 +5429,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004999501242316117</v>
+        <v>0.00506809323337583</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -5450,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K45">
         <v>0.002022521672856468</v>
@@ -5471,7 +5471,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5479,7 +5479,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5500,7 +5500,7 @@
         <v>3</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K46">
         <v>0.002022521672856468</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5529,7 +5529,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5550,7 +5550,7 @@
         <v>26</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K47">
         <v>0.002022521672856468</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5579,7 +5579,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5600,7 +5600,7 @@
         <v>10</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K48">
         <v>0.002022521672856468</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>111</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5629,7 +5629,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5650,7 +5650,7 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K49">
         <v>0.002022521672856468</v>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5679,7 +5679,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5700,28 +5700,28 @@
         <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>101</v>
+        <v>321</v>
       </c>
       <c r="K50">
-        <v>0.002015292579240804</v>
+        <v>0.002022521672856468</v>
       </c>
       <c r="L50">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="N50">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>106</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5729,7 +5729,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5779,7 +5779,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -5829,7 +5829,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004628638738974102</v>
+        <v>0.004692142582980603</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -5879,7 +5879,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5900,7 +5900,7 @@
         <v>85</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K54">
         <v>0.001941667123791792</v>
@@ -5929,7 +5929,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5979,7 +5979,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6029,7 +6029,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6079,7 +6079,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6129,7 +6129,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6179,7 +6179,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6200,7 +6200,7 @@
         <v>11</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K60">
         <v>0.001871542667325546</v>
@@ -6229,7 +6229,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.00422534974646397</v>
+        <v>0.004283320559548387</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -6250,7 +6250,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K61">
         <v>0.001821000256444294</v>
@@ -6279,7 +6279,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003844785807669864</v>
+        <v>0.003897535372269238</v>
       </c>
       <c r="C62">
         <v>42</v>
@@ -6329,7 +6329,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6379,7 +6379,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6429,7 +6429,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003779267704721975</v>
+        <v>0.003831118376229051</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6479,7 +6479,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6500,7 +6500,7 @@
         <v>4</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K66">
         <v>0.0017767356727213</v>
@@ -6529,7 +6529,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6579,7 +6579,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6629,7 +6629,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6679,7 +6679,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6729,7 +6729,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6779,7 +6779,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6800,7 +6800,7 @@
         <v>5</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K72">
         <v>0.001708676793334978</v>
@@ -6829,7 +6829,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6850,7 +6850,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K73">
         <v>0.001697473605658633</v>
@@ -6879,7 +6879,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6900,7 +6900,7 @@
         <v>36</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K74">
         <v>0.001637662581313998</v>
@@ -6929,7 +6929,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003272941839991337</v>
+        <v>0.003317845838719747</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -6979,7 +6979,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003076417001570839</v>
+        <v>0.003118624725349688</v>
       </c>
       <c r="C76">
         <v>35</v>
@@ -7029,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7079,7 +7079,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7129,7 +7129,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7179,7 +7179,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7229,7 +7229,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7250,7 +7250,7 @@
         <v>17</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K81">
         <v>0.001617300302355917</v>
@@ -7279,7 +7279,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7329,7 +7329,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7379,7 +7379,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7429,7 +7429,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7479,7 +7479,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7529,7 +7529,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7579,7 +7579,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7629,7 +7629,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -7729,7 +7729,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002672345821928228</v>
+        <v>0.002709009783359958</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -7750,7 +7750,7 @@
         <v>250</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K91">
         <v>0.001522063959343328</v>
@@ -7779,7 +7779,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002196889270888765</v>
+        <v>0.002227030079326322</v>
       </c>
       <c r="C92">
         <v>10</v>
@@ -7800,7 +7800,7 @@
         <v>605</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K92">
         <v>0.001515320281914037</v>
@@ -7829,7 +7829,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002166802957103449</v>
+        <v>0.00219653098833261</v>
       </c>
       <c r="C93">
         <v>9</v>
@@ -7850,7 +7850,7 @@
         <v>2917</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K93">
         <v>0.001439406555468659</v>
@@ -7879,7 +7879,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002127445142930412</v>
+        <v>0.002156633194128157</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -7929,7 +7929,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002110253611800321</v>
+        <v>0.002139205799200374</v>
       </c>
       <c r="C95">
         <v>6</v>
@@ -7979,25 +7979,25 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.001908615052485597</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C96">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D96">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>106</v>
+        <v>8</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>356</v>
@@ -8029,7 +8029,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>357</v>
@@ -8079,7 +8079,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>358</v>
@@ -8129,7 +8129,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>359</v>
@@ -8179,7 +8179,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8197,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>360</v>
@@ -8229,7 +8229,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8247,10 +8247,10 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K101">
         <v>0.001362458061542346</v>
@@ -8279,7 +8279,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K102">
         <v>0.001356816423659727</v>
@@ -8329,7 +8329,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8347,10 +8347,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K103">
         <v>0.001326313895771172</v>
@@ -8379,7 +8379,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8397,10 +8397,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K104">
         <v>0.001324307230031908</v>
@@ -8429,7 +8429,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8447,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>361</v>
@@ -8479,7 +8479,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>362</v>
@@ -8529,7 +8529,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>363</v>
@@ -8579,7 +8579,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>364</v>
@@ -8629,7 +8629,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8647,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>365</v>
@@ -8679,7 +8679,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>366</v>
@@ -8729,7 +8729,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>367</v>
@@ -8779,7 +8779,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>368</v>
@@ -8829,7 +8829,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>369</v>
@@ -8879,7 +8879,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8897,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>370</v>
@@ -8929,7 +8929,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>371</v>
@@ -8979,7 +8979,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8997,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>372</v>
@@ -9029,7 +9029,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>373</v>
@@ -9079,7 +9079,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9097,7 +9097,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>374</v>
@@ -9129,7 +9129,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>375</v>
@@ -9179,7 +9179,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9197,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>376</v>
@@ -9229,7 +9229,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>377</v>
@@ -9279,7 +9279,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>378</v>
@@ -9329,7 +9329,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>379</v>
@@ -9379,7 +9379,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9397,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>380</v>
@@ -9429,7 +9429,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>381</v>
@@ -9479,7 +9479,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>382</v>
@@ -9529,7 +9529,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>383</v>
@@ -9579,7 +9579,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>384</v>
@@ -9629,7 +9629,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K129">
         <v>0.001225029279530829</v>
@@ -9679,7 +9679,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>385</v>
@@ -9729,7 +9729,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>386</v>
@@ -9779,7 +9779,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>387</v>
@@ -9829,7 +9829,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>388</v>
@@ -9879,7 +9879,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9897,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>389</v>
@@ -9929,7 +9929,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -9947,7 +9947,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>390</v>
@@ -9979,7 +9979,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>391</v>
@@ -10029,7 +10029,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>392</v>
@@ -10079,7 +10079,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10097,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>393</v>
@@ -10129,7 +10129,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>394</v>
@@ -10179,7 +10179,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>395</v>
@@ -10229,7 +10229,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>396</v>
@@ -10279,7 +10279,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10297,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>397</v>
@@ -10329,7 +10329,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10347,7 +10347,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>398</v>
@@ -10379,7 +10379,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10397,7 +10397,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>399</v>
@@ -10429,7 +10429,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10479,7 +10479,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10497,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>401</v>
@@ -10529,7 +10529,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001889633852360988</v>
+        <v>0.001915559188114526</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>402</v>
@@ -10579,25 +10579,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001889633852360988</v>
+        <v>0.001845199426485675</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>403</v>
@@ -10629,25 +10629,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001820226345538506</v>
+        <v>0.001775229760569752</v>
       </c>
       <c r="C149">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D149">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E149">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F149">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>91</v>
+        <v>219</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>404</v>
@@ -10679,25 +10679,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001751203654841459</v>
+        <v>0.001707294497000802</v>
       </c>
       <c r="C150">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D150">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="E150">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>219</v>
+        <v>690</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>405</v>
@@ -10729,13 +10729,13 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001736480586930528</v>
+        <v>0.001661928319486238</v>
       </c>
       <c r="C151">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D151">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="E151">
         <v>0.95</v>
@@ -10747,7 +10747,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>56</v>
+        <v>255</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>406</v>
@@ -10779,13 +10779,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001684187832722534</v>
+        <v>0.001585135213810714</v>
       </c>
       <c r="C152">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D152">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="E152">
         <v>0.9399999999999999</v>
@@ -10797,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>690</v>
+        <v>499</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>407</v>
@@ -10829,25 +10829,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001639435644789299</v>
+        <v>0.001514667175150372</v>
       </c>
       <c r="C153">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D153">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="E153">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F153">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>408</v>
@@ -10879,25 +10879,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001563681863328107</v>
+        <v>0.001482997265930028</v>
       </c>
       <c r="C154">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D154">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E154">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F154">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>499</v>
+        <v>30</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>409</v>
@@ -10929,25 +10929,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001494167544904392</v>
+        <v>0.001364394788929155</v>
       </c>
       <c r="C155">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D155">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="E155">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F155">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>286</v>
+        <v>195</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>410</v>
@@ -10979,13 +10979,13 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001462926258842714</v>
+        <v>0.00135960461612738</v>
       </c>
       <c r="C156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E156">
         <v>0.97</v>
@@ -10997,7 +10997,7 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>411</v>
@@ -11029,25 +11029,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001345928957529718</v>
+        <v>0.001354959720142027</v>
       </c>
       <c r="C157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="E157">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F157">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>195</v>
+        <v>434</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>412</v>
@@ -11079,25 +11079,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001341203615321001</v>
+        <v>0.001327875444163344</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D158">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>413</v>
@@ -11129,25 +11129,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001336621583740312</v>
+        <v>0.001316856350512963</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D159">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>414</v>
@@ -11179,25 +11179,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001309903868582483</v>
+        <v>0.001298139371960885</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D160">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E160">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F160">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>415</v>
@@ -11229,25 +11229,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001299033908252732</v>
+        <v>0.001199587813127782</v>
       </c>
       <c r="C161">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D161">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="E161">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>416</v>
@@ -11279,28 +11279,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001280570246829284</v>
+        <v>0.001182453811793232</v>
       </c>
       <c r="C162">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D162">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K162">
         <v>0.001185726870674677</v>
@@ -11329,28 +11329,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001183352492906849</v>
+        <v>0.001159734845893439</v>
       </c>
       <c r="C163">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>241</v>
+        <v>17</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K163">
         <v>0.001122949118818739</v>
@@ -11379,28 +11379,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001166450384556946</v>
+        <v>0.001153989466365606</v>
       </c>
       <c r="C164">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D164">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K164">
         <v>0.001120082993255733</v>
@@ -11429,28 +11429,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001144038899012017</v>
+        <v>0.00112363576111847</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D165">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E165">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F165">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K165">
         <v>0.001105610321197898</v>
@@ -11479,28 +11479,28 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001138371277923712</v>
+        <v>0.001114330284043007</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="E166">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F166">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>190</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K166">
         <v>0.001100447052911257</v>
@@ -11529,25 +11529,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.00110842838222231</v>
+        <v>0.001105432737342905</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D167">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="E167">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F167">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>417</v>
@@ -11579,25 +11579,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001099248846239675</v>
+        <v>0.001089937057188206</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D168">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E168">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F168">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>24</v>
+        <v>1079</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>418</v>
@@ -11629,25 +11629,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001090471719669118</v>
+        <v>0.001084523768071542</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D169">
-        <v>114</v>
+        <v>10</v>
       </c>
       <c r="E169">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="F169">
-        <v>0.01000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>419</v>
@@ -11679,25 +11679,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.00107518575932534</v>
+        <v>0.001070326047317105</v>
       </c>
       <c r="C170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D170">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E170">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F170">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1079</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>420</v>
@@ -11729,25 +11729,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001069845734109239</v>
+        <v>0.001062147056509141</v>
       </c>
       <c r="C171">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="E171">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.9</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>421</v>
@@ -11779,25 +11779,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001055840166476343</v>
+        <v>0.0009816756158114053</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E172">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F172">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>422</v>
@@ -11829,25 +11829,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001047771870803323</v>
+        <v>0.0009807628909682881</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E173">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>423</v>
@@ -11879,25 +11879,25 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0009683895372089359</v>
+        <v>0.0009470636811534195</v>
       </c>
       <c r="C174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E174">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F174">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>424</v>
@@ -11929,25 +11929,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.000967489165258987</v>
+        <v>0.0009390420225540789</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D175">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>425</v>
@@ -11979,13 +11979,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0009342460433240965</v>
+        <v>0.0008682580544188155</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E176">
         <v>0.98</v>
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>426</v>
@@ -12029,25 +12029,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0009263329505126357</v>
+        <v>0.0008613082964077205</v>
       </c>
       <c r="C177">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D177">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E177">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F177">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>427</v>
@@ -12079,13 +12079,13 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008565069784295229</v>
+        <v>0.0008556810605700773</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E178">
         <v>0.98</v>
@@ -12097,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>428</v>
@@ -12129,25 +12129,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008496512790155003</v>
+        <v>0.0008520450457126032</v>
       </c>
       <c r="C179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E179">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F179">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>429</v>
@@ -12179,13 +12179,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0008441002026509556</v>
+        <v>0.0008286024255676649</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E180">
         <v>0.98</v>
@@ -12197,7 +12197,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>430</v>
@@ -12229,25 +12229,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0008405133979179034</v>
+        <v>0.0007922361029005031</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E181">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F181">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>431</v>
@@ -12279,25 +12279,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0008173880521239594</v>
+        <v>0.0007904722697303351</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E182">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>432</v>
@@ -12329,25 +12329,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007815139142616928</v>
+        <v>0.0007821749607438974</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>37</v>
       </c>
       <c r="E183">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F183">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>433</v>
@@ -12379,13 +12379,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007797739529548605</v>
+        <v>0.000755711286370075</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E184">
         <v>0.97</v>
@@ -12397,7 +12397,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>434</v>
@@ -12429,25 +12429,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007715889404313349</v>
+        <v>0.0007422269059434391</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D185">
         <v>37</v>
       </c>
       <c r="E185">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F185">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>435</v>
@@ -12479,13 +12479,13 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007454834276051539</v>
+        <v>0.0007265505915096014</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E186">
         <v>0.97</v>
@@ -12497,7 +12497,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>436</v>
@@ -12529,25 +12529,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0007321815458933361</v>
+        <v>0.0007053499370598677</v>
       </c>
       <c r="C187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E187">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F187">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>437</v>
@@ -12579,25 +12579,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007167173959896245</v>
+        <v>0.0006956918666207487</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E188">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>438</v>
@@ -12629,25 +12629,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006958036729425928</v>
+        <v>0.0006941494848657245</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E189">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F189">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>439</v>
@@ -12679,25 +12679,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006862763156239135</v>
+        <v>0.0006786292738252104</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D190">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>207</v>
+        <v>98</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>440</v>
@@ -12729,13 +12729,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000684754808590541</v>
+        <v>0.0006704027658455666</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E191">
         <v>0.96</v>
@@ -12747,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>278</v>
+        <v>25</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>441</v>
@@ -12779,25 +12779,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0006694446493639764</v>
+        <v>0.0006704027658455666</v>
       </c>
       <c r="C192">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E192">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F192">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>442</v>
@@ -12829,25 +12829,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0006613294796205901</v>
+        <v>0.0006672410961076741</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D193">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E193">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="F193">
-        <v>0.04000000000000004</v>
+        <v>0.13</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>443</v>
@@ -12879,25 +12879,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006613294796205901</v>
+        <v>0.0006616297710869184</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E194">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>41</v>
+        <v>513</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>444</v>
@@ -12929,25 +12929,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0006582106001812199</v>
+        <v>0.0006473308803202066</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E195">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F195">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>445</v>
@@ -12979,25 +12979,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0006526752192952569</v>
+        <v>0.0006308792281620254</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>513</v>
+        <v>337</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>446</v>
@@ -13029,25 +13029,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0006385698508933615</v>
+        <v>0.0006308792281620254</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E197">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>447</v>
@@ -13079,25 +13079,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0006223408567498988</v>
+        <v>0.000616489321963998</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E198">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F198">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>337</v>
+        <v>39</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>448</v>
@@ -13129,25 +13129,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0006223408567498988</v>
+        <v>0.0006121464200751184</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E199">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>449</v>
@@ -13179,25 +13179,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006081457047270285</v>
+        <v>0.0006029065993794405</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D200">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E200">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F200">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>450</v>
@@ -13229,25 +13229,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006038615800298496</v>
+        <v>0.0006014027645368922</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>451</v>
@@ -13279,25 +13279,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0005947468118281505</v>
+        <v>0.0006014027645368922</v>
       </c>
       <c r="C202">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>452</v>
@@ -13329,7 +13329,7 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0005932633300101672</v>
+        <v>0.0006014027645368922</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -13347,7 +13347,7 @@
         <v>1</v>
       </c>
       <c r="H203">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>453</v>
@@ -13379,7 +13379,7 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0005932633300101672</v>
+        <v>0.0006014027645368922</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -13397,10 +13397,10 @@
         <v>1</v>
       </c>
       <c r="H204">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K204">
         <v>0.001053215491073015</v>
@@ -13429,28 +13429,28 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0005932633300101672</v>
+        <v>0.0005935490838878862</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E205">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F205">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K205">
         <v>0.00101781413625626</v>
@@ -13479,13 +13479,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005932633300101672</v>
+        <v>0.0005688744131134216</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E206">
         <v>0.95</v>
@@ -13497,10 +13497,10 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K206">
         <v>0.001006738369165955</v>
@@ -13529,28 +13529,28 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.000585515941721632</v>
+        <v>0.0005688744131134216</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E207">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F207">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K207">
         <v>0.0009554111258417171</v>
@@ -13579,7 +13579,7 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005611752199728124</v>
+        <v>0.0005688744131134216</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -13597,10 +13597,10 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K208">
         <v>0.000945887295469781</v>
@@ -13629,28 +13629,28 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005611752199728124</v>
+        <v>0.0005688194272574644</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F209">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="J209" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K209">
         <v>0.000945887295469781</v>
@@ -13679,25 +13679,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005611752199728124</v>
+        <v>0.0005688194272574644</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E210">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F210">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>454</v>
@@ -13729,25 +13729,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0005611209782999565</v>
+        <v>0.0005512758387505238</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F211">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>455</v>
@@ -13779,25 +13779,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0005611209782999565</v>
+        <v>0.0005274909116860804</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
       <c r="D212">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E212">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>456</v>
@@ -13829,25 +13829,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.000543814826164174</v>
+        <v>0.0005057855928312718</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>263</v>
+        <v>85</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>457</v>
@@ -13879,25 +13879,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005203518062607544</v>
+        <v>0.0004919284365038584</v>
       </c>
       <c r="C214">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E214">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F214">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>458</v>
@@ -13929,25 +13929,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0004989402489782533</v>
+        <v>0.0004883794194243679</v>
       </c>
       <c r="C215">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>459</v>
@@ -13979,13 +13979,13 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0004852706365453886</v>
+        <v>0.0004695210112770394</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E216">
         <v>0.93</v>
@@ -13997,7 +13997,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>212</v>
+        <v>49</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>460</v>
@@ -14029,25 +14029,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004817696521552305</v>
+        <v>0.0004455188875094256</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E217">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="F217">
-        <v>0.11</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>461</v>
@@ -14079,25 +14079,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004631664752563179</v>
+        <v>0.0004197025821841872</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>462</v>
@@ -14129,13 +14129,13 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004394891982077896</v>
+        <v>0.0004197025821841872</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E219">
         <v>0.92</v>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>463</v>
@@ -14179,7 +14179,7 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004140222928841933</v>
+        <v>0.0004197025821841872</v>
       </c>
       <c r="C220">
         <v>1</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>464</v>
@@ -14229,7 +14229,7 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004140222928841933</v>
+        <v>0.0004197025821841872</v>
       </c>
       <c r="C221">
         <v>1</v>
@@ -14247,7 +14247,7 @@
         <v>1</v>
       </c>
       <c r="H221">
-        <v>51</v>
+        <v>452</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>465</v>
@@ -14279,25 +14279,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004140222928841933</v>
+        <v>0.0003918067939229459</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>466</v>
@@ -14329,25 +14329,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004140222928841933</v>
+        <v>0.0003918067939229459</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>452</v>
+        <v>55</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>467</v>
@@ -14379,25 +14379,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003865040485178468</v>
+        <v>0.0003615079226905141</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>468</v>
@@ -14429,25 +14429,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003865040485178468</v>
+        <v>0.0003615079226905141</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>469</v>
@@ -14479,7 +14479,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003566152447030797</v>
+        <v>0.0003615079226905141</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14497,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>470</v>
@@ -14529,25 +14529,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003566152447030797</v>
+        <v>0.0003559926464039875</v>
       </c>
       <c r="C227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>471</v>
@@ -14579,25 +14579,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003566152447030797</v>
+        <v>0.0003284080494473862</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E228">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F228">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>472</v>
@@ -14629,25 +14629,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003511746126198692</v>
+        <v>0.0003284080494473862</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E229">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F229">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>473</v>
@@ -14679,7 +14679,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003239633478694264</v>
+        <v>0.0003284080494473862</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14697,7 +14697,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>474</v>
@@ -14729,25 +14729,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003239633478694264</v>
+        <v>0.0002924769227708858</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E231">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>475</v>
@@ -14779,25 +14779,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003239633478694264</v>
+        <v>0.0002920154481733693</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F232">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>476</v>
@@ -14829,25 +14829,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002885185160194555</v>
+        <v>0.0002920154481733693</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>477</v>
@@ -14879,7 +14879,7 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002880632870571334</v>
+        <v>0.0002920154481733693</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -14897,7 +14897,7 @@
         <v>1</v>
       </c>
       <c r="H234">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>478</v>
@@ -14929,7 +14929,7 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002880632870571334</v>
+        <v>0.0002920154481733693</v>
       </c>
       <c r="C235">
         <v>1</v>
@@ -14947,7 +14947,7 @@
         <v>1</v>
       </c>
       <c r="H235">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>479</v>
@@ -14979,7 +14979,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002880632870571334</v>
+        <v>0.0002920154481733693</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14997,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>480</v>
@@ -15029,25 +15029,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002880632870571334</v>
+        <v>0.0002583358007993984</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E237">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>0.22</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>44</v>
+        <v>950</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>481</v>
@@ -15079,25 +15079,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002880632870571334</v>
+        <v>0.0002517248143248044</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E238">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F238">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>482</v>
@@ -15129,25 +15129,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002548394628034548</v>
+        <v>0.0002517248143248044</v>
       </c>
       <c r="C239">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>0.78</v>
+        <v>0.86</v>
       </c>
       <c r="F239">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>950</v>
+        <v>35</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>483</v>
@@ -15179,7 +15179,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002483179499640684</v>
+        <v>0.0002517248143248044</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15197,7 +15197,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>484</v>
@@ -15229,25 +15229,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002483179499640684</v>
+        <v>0.0002213373848876536</v>
       </c>
       <c r="C241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D241">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F241">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>485</v>
@@ -15279,25 +15279,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002483179499640684</v>
+        <v>0.0002073862431116636</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D242">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F242">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>486</v>
@@ -15329,25 +15329,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002183417864986157</v>
+        <v>0.0002068124154318675</v>
       </c>
       <c r="C243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>487</v>
@@ -15379,25 +15379,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.000204579460623973</v>
+        <v>0.0002068124154318675</v>
       </c>
       <c r="C244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E244">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F244">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>488</v>
@@ -15429,25 +15429,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002040133991752365</v>
+        <v>0.0001826709965685117</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>489</v>
@@ -15479,25 +15479,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002040133991752365</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F246">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>490</v>
@@ -15529,25 +15529,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001801987122622599</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C247">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D247">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E247">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F247">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>491</v>
@@ -15579,7 +15579,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001543909578495565</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15597,7 +15597,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>492</v>
@@ -15629,7 +15629,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001543909578495565</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15647,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>493</v>
@@ -15679,7 +15679,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001543909578495565</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -15697,7 +15697,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>494</v>
@@ -15729,7 +15729,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001543909578495565</v>
+        <v>0.0001565091657841567</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>495</v>
@@ -15779,25 +15779,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0001543909578495565</v>
+        <v>0.0001420297724525745</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F252">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>496</v>
@@ -15829,25 +15829,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0001543909578495565</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>497</v>
@@ -15879,13 +15879,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0001401075298193641</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E254">
         <v>0.75</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>498</v>
@@ -15929,7 +15929,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -15947,7 +15947,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>499</v>
@@ -15979,7 +15979,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -15997,7 +15997,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>500</v>
@@ -16029,7 +16029,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16047,7 +16047,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>501</v>
@@ -16079,7 +16079,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16097,7 +16097,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>502</v>
@@ -16129,7 +16129,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16147,7 +16147,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>503</v>
@@ -16179,7 +16179,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16197,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>504</v>
@@ -16229,7 +16229,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>9.907098443056916E-05</v>
+        <v>0.0001004302152315981</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16247,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>505</v>
@@ -16279,25 +16279,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>9.907098443056916E-05</v>
+        <v>9.991295229469869E-05</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E262">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F262">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>506</v>
@@ -16329,25 +16329,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>9.907098443056916E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E263">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F263">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>507</v>
@@ -16379,25 +16379,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>9.856072217284226E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E264">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F264">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>508</v>
@@ -16429,7 +16429,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16447,7 +16447,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>509</v>
@@ -16479,7 +16479,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16497,7 +16497,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>510</v>
@@ -16529,7 +16529,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>511</v>
@@ -16579,7 +16579,7 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -16597,7 +16597,7 @@
         <v>1</v>
       </c>
       <c r="H268">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>512</v>
@@ -16629,7 +16629,7 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C269">
         <v>1</v>
@@ -16647,7 +16647,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>513</v>
@@ -16679,7 +16679,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -16697,7 +16697,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>514</v>
@@ -16729,7 +16729,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>4.032462701846622E-05</v>
+        <v>4.087787149664051E-05</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -16747,7 +16747,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>515</v>
@@ -16779,25 +16779,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>4.032462701846622E-05</v>
+        <v>0</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E272">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F272">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>516</v>
@@ -16829,25 +16829,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>4.032462701846622E-05</v>
+        <v>0</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E273">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F273">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>517</v>
@@ -16897,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>518</v>
@@ -16947,7 +16947,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>519</v>
@@ -16997,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>520</v>
@@ -17047,10 +17047,10 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K277">
         <v>0.0009352059143482332</v>
@@ -17097,10 +17097,10 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K278">
         <v>0.000899622200084527</v>
@@ -17147,10 +17147,10 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K279">
         <v>0.0008350090057249984</v>
@@ -17197,10 +17197,10 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K280">
         <v>0.0008350090057249984</v>
@@ -17247,10 +17247,10 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K281">
         <v>0.0007972027657126693</v>
@@ -17297,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>521</v>
@@ -17347,7 +17347,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>522</v>
@@ -17397,7 +17397,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>523</v>
@@ -17447,7 +17447,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>524</v>
@@ -17497,7 +17497,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>525</v>
@@ -17525,30 +17525,6 @@
       </c>
     </row>
     <row r="287" spans="1:17">
-      <c r="A287" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287">
-        <v>2</v>
-      </c>
-      <c r="E287">
-        <v>0.5</v>
-      </c>
-      <c r="F287">
-        <v>0.5</v>
-      </c>
-      <c r="G287" t="b">
-        <v>1</v>
-      </c>
-      <c r="H287">
-        <v>77</v>
-      </c>
       <c r="J287" s="1" t="s">
         <v>526</v>
       </c>
@@ -17575,30 +17551,6 @@
       </c>
     </row>
     <row r="288" spans="1:17">
-      <c r="A288" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288">
-        <v>2</v>
-      </c>
-      <c r="E288">
-        <v>0.5</v>
-      </c>
-      <c r="F288">
-        <v>0.5</v>
-      </c>
-      <c r="G288" t="b">
-        <v>1</v>
-      </c>
-      <c r="H288">
-        <v>49</v>
-      </c>
       <c r="J288" s="1" t="s">
         <v>527</v>
       </c>
@@ -21006,7 +20958,7 @@
     </row>
     <row r="419" spans="10:17">
       <c r="J419" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K419">
         <v>0.0007589514737294923</v>
@@ -21032,7 +20984,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K420">
         <v>0.0007589514737294923</v>
@@ -21058,7 +21010,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K421">
         <v>0.0007589514737294923</v>
@@ -21084,7 +21036,7 @@
     </row>
     <row r="422" spans="10:17">
       <c r="J422" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K422">
         <v>0.0007589514737294923</v>
@@ -21110,7 +21062,7 @@
     </row>
     <row r="423" spans="10:17">
       <c r="J423" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K423">
         <v>0.000734538450495695</v>
@@ -21136,7 +21088,7 @@
     </row>
     <row r="424" spans="10:17">
       <c r="J424" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K424">
         <v>0.0007050974035033067</v>
@@ -21162,7 +21114,7 @@
     </row>
     <row r="425" spans="10:17">
       <c r="J425" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K425">
         <v>0.0006810613637166752</v>
@@ -21188,7 +21140,7 @@
     </row>
     <row r="426" spans="10:17">
       <c r="J426" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K426">
         <v>0.0006810613637166752</v>
@@ -21214,7 +21166,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K427">
         <v>0.0006810613637166752</v>
@@ -21240,7 +21192,7 @@
     </row>
     <row r="428" spans="10:17">
       <c r="J428" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K428">
         <v>0.0006458251035788452</v>
@@ -21266,7 +21218,7 @@
     </row>
     <row r="429" spans="10:17">
       <c r="J429" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K429">
         <v>0.0006413971266393168</v>
@@ -21292,7 +21244,7 @@
     </row>
     <row r="430" spans="10:17">
       <c r="J430" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K430">
         <v>0.0006055725494198469</v>
@@ -21318,7 +21270,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K431">
         <v>0.0005857844310440019</v>
@@ -21344,7 +21296,7 @@
     </row>
     <row r="432" spans="10:17">
       <c r="J432" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K432">
         <v>0.0005804796524113025</v>
@@ -21370,7 +21322,7 @@
     </row>
     <row r="433" spans="10:17">
       <c r="J433" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K433">
         <v>0.0005555032091813093</v>
@@ -29352,7 +29304,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K740">
         <v>0.000519397119387765</v>
@@ -29378,7 +29330,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K741">
         <v>0.0004800351686309613</v>
@@ -29404,7 +29356,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K742">
         <v>0.0004777055629208586</v>
@@ -29430,7 +29382,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K743">
         <v>0.0004580919199893535</v>
@@ -29456,7 +29408,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K744">
         <v>0.0004539970227831495</v>
@@ -29482,7 +29434,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K745">
         <v>0.0004539970227831495</v>
@@ -29534,7 +29486,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K747">
         <v>0.0004355021807864838</v>
@@ -29560,7 +29512,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K748">
         <v>0.0004030874577820584</v>
@@ -29586,7 +29538,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K749">
         <v>0.000401791188084351</v>
@@ -29612,7 +29564,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K750">
         <v>0.0003928000861829929</v>
@@ -29638,7 +29590,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K751">
         <v>0.0003928000861829929</v>
@@ -29664,7 +29616,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K752">
         <v>0.0003928000861829929</v>
@@ -29690,7 +29642,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K753">
         <v>0.0003928000861829929</v>
@@ -29716,7 +29668,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K754">
         <v>0.0003776148501210033</v>
@@ -29742,7 +29694,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K755">
         <v>0.0003496274744213962</v>
@@ -29768,7 +29720,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K756">
         <v>0.0003496274744213962</v>
@@ -29794,7 +29746,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K757">
         <v>0.0003060361042991873</v>
@@ -29820,7 +29772,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K758">
         <v>0.0003060361042991873</v>
@@ -29846,7 +29798,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K759">
         <v>0.0003060361042991873</v>
@@ -29872,7 +29824,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K760">
         <v>0.0002621153033151401</v>
@@ -29898,7 +29850,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K761">
         <v>0.0002621153033151401</v>
@@ -29924,7 +29876,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K762">
         <v>0.0002621153033151401</v>
@@ -29950,7 +29902,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K763">
         <v>0.0002460652256728525</v>
@@ -29976,7 +29928,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K764">
         <v>0.000218016035367362</v>
@@ -30002,7 +29954,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K765">
         <v>0.000218016035367362</v>
@@ -30028,7 +29980,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K766">
         <v>0.000218016035367362</v>
@@ -30054,7 +30006,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K767">
         <v>0.000218016035367362</v>
@@ -30080,7 +30032,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K768">
         <v>0.000218016035367362</v>
@@ -30106,7 +30058,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K769">
         <v>0.0001845483631420966</v>
@@ -30132,7 +30084,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K770">
         <v>0.0001739943896874721</v>
@@ -30158,7 +30110,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K771">
         <v>0.0001739943896874721</v>
@@ -30184,7 +30136,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K772">
         <v>0.0001739943896874721</v>
@@ -30210,7 +30162,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K773">
         <v>0.0001363804781479496</v>
@@ -30236,7 +30188,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K774">
         <v>0.000130495399034654</v>
@@ -30262,7 +30214,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K775">
         <v>0.000130495399034654</v>
@@ -30288,7 +30240,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K776">
         <v>0.0001249160839088571</v>
@@ -30314,7 +30266,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K777">
         <v>0.0001068446811912036</v>
@@ -30340,7 +30292,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K778">
         <v>0.0001020120347663958</v>
@@ -30366,7 +30318,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K779">
         <v>9.643556091987895E-05</v>
@@ -30392,7 +30344,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K780">
         <v>8.832901001122059E-05</v>
@@ -30418,7 +30370,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K781">
         <v>8.832901001122059E-05</v>
@@ -30444,7 +30396,7 @@
     </row>
     <row r="782" spans="10:17">
       <c r="J782" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K782">
         <v>8.832901001122059E-05</v>
@@ -30470,7 +30422,7 @@
     </row>
     <row r="783" spans="10:17">
       <c r="J783" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K783">
         <v>8.832901001122059E-05</v>
@@ -30496,7 +30448,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K784">
         <v>8.832901001122059E-05</v>
@@ -30522,7 +30474,7 @@
     </row>
     <row r="785" spans="10:17">
       <c r="J785" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K785">
         <v>8.832901001122059E-05</v>
@@ -30548,7 +30500,7 @@
     </row>
     <row r="786" spans="10:17">
       <c r="J786" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K786">
         <v>6.941824171079121E-05</v>
@@ -30574,7 +30526,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K787">
         <v>4.908610945174732E-05</v>
@@ -30600,7 +30552,7 @@
     </row>
     <row r="788" spans="10:17">
       <c r="J788" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K788">
         <v>4.908610945174732E-05</v>
@@ -30626,7 +30578,7 @@
     </row>
     <row r="789" spans="10:17">
       <c r="J789" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K789">
         <v>4.908610945174732E-05</v>
@@ -30652,7 +30604,7 @@
     </row>
     <row r="790" spans="10:17">
       <c r="J790" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K790">
         <v>4.908610945174732E-05</v>
@@ -30678,7 +30630,7 @@
     </row>
     <row r="791" spans="10:17">
       <c r="J791" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K791">
         <v>4.908610945174732E-05</v>
@@ -30704,7 +30656,7 @@
     </row>
     <row r="792" spans="10:17">
       <c r="J792" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K792">
         <v>4.908610945174732E-05</v>
@@ -30730,7 +30682,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K793">
         <v>4.908610945174732E-05</v>
@@ -30756,7 +30708,7 @@
     </row>
     <row r="794" spans="10:17">
       <c r="J794" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K794">
         <v>4.908610945174732E-05</v>
@@ -30782,7 +30734,7 @@
     </row>
     <row r="795" spans="10:17">
       <c r="J795" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K795">
         <v>4.908610945174732E-05</v>
@@ -30808,7 +30760,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K796">
         <v>4.457849342404574E-05</v>
@@ -30834,7 +30786,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K797">
         <v>1.631311367709944E-05</v>
@@ -30860,7 +30812,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K798">
         <v>1.631311367709944E-05</v>
@@ -30886,7 +30838,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K799">
         <v>1.631311367709944E-05</v>
@@ -30912,7 +30864,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K800">
         <v>1.631311367709944E-05</v>
@@ -30938,7 +30890,7 @@
     </row>
     <row r="801" spans="10:17">
       <c r="J801" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K801">
         <v>1.631311367709944E-05</v>
@@ -30964,7 +30916,7 @@
     </row>
     <row r="802" spans="10:17">
       <c r="J802" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K802">
         <v>1.631311367709944E-05</v>
@@ -30990,7 +30942,7 @@
     </row>
     <row r="803" spans="10:17">
       <c r="J803" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K803">
         <v>1.631311367709944E-05</v>
@@ -31016,7 +30968,7 @@
     </row>
     <row r="804" spans="10:17">
       <c r="J804" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K804">
         <v>1.631311367709944E-05</v>
@@ -31042,7 +30994,7 @@
     </row>
     <row r="805" spans="10:17">
       <c r="J805" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K805">
         <v>1.631311367709944E-05</v>
@@ -31068,7 +31020,7 @@
     </row>
     <row r="806" spans="10:17">
       <c r="J806" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K806">
         <v>0</v>
@@ -31094,7 +31046,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K807">
         <v>0</v>
@@ -31120,7 +31072,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K808">
         <v>0</v>
@@ -31146,7 +31098,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K809">
         <v>0</v>
@@ -31172,7 +31124,7 @@
     </row>
     <row r="810" spans="10:17">
       <c r="J810" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K810">
         <v>0</v>
@@ -31198,7 +31150,7 @@
     </row>
     <row r="811" spans="10:17">
       <c r="J811" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K811">
         <v>0</v>
@@ -31224,7 +31176,7 @@
     </row>
     <row r="812" spans="10:17">
       <c r="J812" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K812">
         <v>0</v>
@@ -31250,7 +31202,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K813">
         <v>0</v>
@@ -31276,7 +31228,7 @@
     </row>
     <row r="814" spans="10:17">
       <c r="J814" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K814">
         <v>0</v>
@@ -31302,7 +31254,7 @@
     </row>
     <row r="815" spans="10:17">
       <c r="J815" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K815">
         <v>0</v>
@@ -31328,7 +31280,7 @@
     </row>
     <row r="816" spans="10:17">
       <c r="J816" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K816">
         <v>0</v>
@@ -31354,7 +31306,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K817">
         <v>0</v>
@@ -31380,7 +31332,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K818">
         <v>0</v>
@@ -31406,7 +31358,7 @@
     </row>
     <row r="819" spans="10:17">
       <c r="J819" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K819">
         <v>0</v>
@@ -31432,7 +31384,7 @@
     </row>
     <row r="820" spans="10:17">
       <c r="J820" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K820">
         <v>0</v>
